--- a/기획서/스크립트 관련/리볼트데이 스크립트 (ver.1.1).xlsx
+++ b/기획서/스크립트 관련/리볼트데이 스크립트 (ver.1.1).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\기획서\스크립트 관련\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="598" activeTab="2"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="3044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4340" uniqueCount="3051">
   <si>
     <t>EventID</t>
   </si>
@@ -13672,11 +13677,123 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0(1)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0(2)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>7(2)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9(2)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9(2)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9(2)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0(2)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -14376,7 +14493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14411,7 +14528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16031,9 +16148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2199" sqref="H2199"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A2253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2275" sqref="A2275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23410,7 +23527,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="769" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E769">
         <v>17</v>
       </c>
@@ -23421,7 +23538,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="770" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E770">
         <v>18</v>
       </c>
@@ -23432,7 +23549,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="771" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E771">
         <v>19</v>
       </c>
@@ -23443,7 +23560,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="772" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E772">
         <v>20</v>
       </c>
@@ -23451,7 +23568,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="773" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E773">
         <v>21</v>
       </c>
@@ -23459,7 +23576,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="774" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E774">
         <v>22</v>
       </c>
@@ -23467,7 +23584,10 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="775" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A775" s="11" t="s">
+        <v>3044</v>
+      </c>
       <c r="E775">
         <v>23</v>
       </c>
@@ -23478,7 +23598,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="776" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E776">
         <v>24</v>
       </c>
@@ -23489,7 +23609,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="777" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E777">
         <v>25</v>
       </c>
@@ -23500,7 +23620,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="778" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E778">
         <v>26</v>
       </c>
@@ -23511,7 +23631,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="779" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E779">
         <v>27</v>
       </c>
@@ -23519,7 +23639,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="780" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E780">
         <v>28</v>
       </c>
@@ -23530,7 +23650,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="781" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E781">
         <v>29</v>
       </c>
@@ -23541,7 +23661,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="782" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E782">
         <v>30</v>
       </c>
@@ -23549,7 +23669,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="783" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E783">
         <v>31</v>
       </c>
@@ -23560,7 +23680,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="784" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E784">
         <v>32</v>
       </c>
@@ -23657,8 +23777,8 @@
       <c r="J793" s="10"/>
     </row>
     <row r="794" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A794">
-        <v>20</v>
+      <c r="A794" s="11" t="s">
+        <v>3045</v>
       </c>
       <c r="B794" t="s">
         <v>107</v>
@@ -29235,7 +29355,7 @@
       </c>
       <c r="J1360" s="11"/>
     </row>
-    <row r="1361" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1361" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1361">
         <v>13</v>
       </c>
@@ -29246,13 +29366,16 @@
       </c>
       <c r="J1361" s="11"/>
     </row>
-    <row r="1362" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1362" s="11" t="s">
+        <v>3046</v>
+      </c>
       <c r="F1362" s="11"/>
       <c r="H1362" s="11"/>
       <c r="I1362" s="10"/>
       <c r="J1362" s="10"/>
     </row>
-    <row r="1363" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1363" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1363">
         <v>14</v>
       </c>
@@ -29263,7 +29386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1364" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1364" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1364">
         <v>15</v>
       </c>
@@ -29272,7 +29395,7 @@
       </c>
       <c r="J1364" s="11"/>
     </row>
-    <row r="1365" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1365" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1365">
         <v>16</v>
       </c>
@@ -29283,7 +29406,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="1366" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1366">
         <v>17</v>
       </c>
@@ -29291,7 +29414,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="1367" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1367" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1367">
         <v>18</v>
       </c>
@@ -29302,7 +29425,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="1368" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1368">
         <v>19</v>
       </c>
@@ -29313,7 +29436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1369" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1369">
         <v>20</v>
       </c>
@@ -29324,7 +29447,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1370" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1370">
         <v>21</v>
       </c>
@@ -29332,7 +29455,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="1371" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1371" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1371">
         <v>12</v>
       </c>
@@ -29346,7 +29469,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="1372" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1372">
         <v>23</v>
       </c>
@@ -29357,7 +29480,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="1373" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1373" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1373">
         <v>24</v>
       </c>
@@ -29368,7 +29491,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="1374" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1374">
         <v>25</v>
       </c>
@@ -29376,7 +29499,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="1375" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1375" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1375">
         <v>26</v>
       </c>
@@ -29387,7 +29510,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="1376" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1376">
         <v>27</v>
       </c>
@@ -31735,6 +31858,9 @@
       <c r="J1613" s="10"/>
     </row>
     <row r="1614" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1614" s="11" t="s">
+        <v>3047</v>
+      </c>
       <c r="E1614" s="11">
         <v>10</v>
       </c>
@@ -31746,6 +31872,7 @@
       </c>
     </row>
     <row r="1615" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1615" s="11"/>
       <c r="E1615" s="11">
         <v>11</v>
       </c>
@@ -33283,6 +33410,9 @@
       <c r="J1768" s="11"/>
     </row>
     <row r="1769" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1769" s="11" t="s">
+        <v>3048</v>
+      </c>
       <c r="E1769">
         <v>5</v>
       </c>
@@ -36335,7 +36465,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="2081" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2081" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2081" s="11">
         <v>5</v>
       </c>
@@ -36343,7 +36473,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="2082" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2082" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2082" s="11">
         <v>6</v>
       </c>
@@ -36354,7 +36484,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="2083" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2083" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2083" s="11">
         <v>7</v>
       </c>
@@ -36362,7 +36492,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="2084" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2084" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2084" s="11">
         <v>8</v>
       </c>
@@ -36370,7 +36500,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="2085" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2085" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2085" s="11">
         <v>9</v>
       </c>
@@ -36381,7 +36511,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="2086" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2086" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2086" s="11">
         <v>10</v>
       </c>
@@ -36392,7 +36522,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="2087" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2087" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2087" s="11">
         <v>11</v>
       </c>
@@ -36401,14 +36531,17 @@
       </c>
       <c r="J2087" s="11"/>
     </row>
-    <row r="2088" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2088" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2088" s="11" t="s">
+        <v>3049</v>
+      </c>
       <c r="E2088" s="11">
         <v>12</v>
       </c>
       <c r="I2088" s="10"/>
       <c r="J2088" s="10"/>
     </row>
-    <row r="2089" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2089" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2089" s="11">
         <v>13</v>
       </c>
@@ -36419,7 +36552,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="2090" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2090" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2090" s="11">
         <v>14</v>
       </c>
@@ -36430,7 +36563,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="2091" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2091" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2091" s="11">
         <v>15</v>
       </c>
@@ -36441,7 +36574,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="2092" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2092" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2092" s="11">
         <v>16</v>
       </c>
@@ -36449,7 +36582,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="2093" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2093" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2093" s="11">
         <v>17</v>
       </c>
@@ -36457,7 +36590,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="2094" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2094" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2094" s="11">
         <v>18</v>
       </c>
@@ -36468,7 +36601,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="2095" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2095" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2095" s="11">
         <v>19</v>
       </c>
@@ -36476,7 +36609,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="2096" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2096" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2096" s="11">
         <v>20</v>
       </c>
@@ -38209,6 +38342,9 @@
       <c r="J2273" s="11"/>
     </row>
     <row r="2274" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2274" s="11" t="s">
+        <v>3050</v>
+      </c>
       <c r="E2274" s="11"/>
       <c r="F2274" s="11" t="s">
         <v>2721</v>
